--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001980</t>
-  </si>
-  <si>
-    <t>005775</t>
-  </si>
-  <si>
-    <t>005776</t>
-  </si>
-  <si>
-    <t>中欧量化驱动混合</t>
-  </si>
-  <si>
-    <t>中加转型动力灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中加转型动力灵活配置混合C</t>
-  </si>
-  <si>
-    <t>30.02</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>85.20</t>
-  </si>
-  <si>
-    <t>69.76</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>0.2762</t>
-  </si>
-  <si>
-    <t>0.0772</t>
-  </si>
-  <si>
-    <t>0.0224</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.67</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1577,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2762</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1292</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -713,264 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1159</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0773</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>27.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,36 +1135,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>75.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.1292</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1471,36 +1173,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>012072</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>45.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1514,96 +1444,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -549,6 +566,2372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012501</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1078,7 +3461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +3821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688596-正帆科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -566,6 +583,1913 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2931,7 +4855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +4987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3461,7 +5385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3821,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
